--- a/trust/social.xlsx
+++ b/trust/social.xlsx
@@ -486,52 +486,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -557,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -598,11 +598,11 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>3</v>
       </c>
@@ -610,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -625,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -669,34 +669,34 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -710,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -725,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -734,31 +734,31 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -766,31 +766,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -799,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -822,49 +822,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -881,28 +881,28 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -911,22 +911,22 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -943,40 +943,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -993,46 +993,46 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1061,40 +1061,40 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1102,52 +1102,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
         <v>5</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -1164,49 +1164,49 @@
         <v>3</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1214,55 +1214,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1270,55 +1270,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>3</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1326,55 +1326,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1382,52 +1382,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
       <c r="I18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>3</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1438,55 +1438,55 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1494,55 +1494,55 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1550,55 +1550,55 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1606,55 +1606,55 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>3</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1662,31 +1662,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1695,22 +1695,22 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1718,22 +1718,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1754,16 +1754,16 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -1777,52 +1777,52 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1836,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1848,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -1869,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1886,52 +1886,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -1945,52 +1945,52 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>3</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1998,10 +1998,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2010,13 +2010,13 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2025,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -2054,10 +2054,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2066,13 +2066,13 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2081,16 +2081,16 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -2110,55 +2110,55 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <v>3</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2166,31 +2166,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -2264,13 +2264,13 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2281,43 +2281,43 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2334,55 +2334,55 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35">
         <v>3</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2390,55 +2390,55 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q36">
         <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2446,55 +2446,55 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2502,55 +2502,55 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q38">
         <v>3</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2564,16 +2564,16 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -2594,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -2614,55 +2614,55 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2673,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2685,16 +2685,16 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -2706,10 +2706,10 @@
         <v>3</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>3</v>
@@ -2726,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2735,43 +2735,43 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
         <v>5</v>
       </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
       <c r="Q42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42">
         <v>3</v>
@@ -2782,55 +2782,55 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2838,52 +2838,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>5</v>
       </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>3</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R44">
         <v>3</v>
@@ -2894,22 +2894,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -2930,19 +2930,19 @@
         <v>3</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2953,19 +2953,19 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2980,16 +2980,16 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>3</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>3</v>
@@ -3009,19 +3009,19 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3051,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3062,22 +3062,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3121,52 +3121,52 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3174,13 +3174,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3189,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -3204,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -3230,55 +3230,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>5</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
       <c r="O51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P51">
         <v>3</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3286,13 +3286,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3301,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -3319,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -3342,55 +3342,55 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3398,28 +3398,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -3428,25 +3428,25 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3460,25 +3460,25 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -3490,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>3</v>
@@ -3510,19 +3510,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3534,31 +3534,31 @@
         <v>3</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3566,55 +3566,55 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
         <v>5</v>
       </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
-      </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>4</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
       <c r="O57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3622,31 +3622,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -3655,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O58">
         <v>3</v>
@@ -3678,55 +3678,55 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3734,55 +3734,55 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q60">
         <v>3</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3793,52 +3793,52 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
         <v>3</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q61">
         <v>3</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3846,13 +3846,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3861,40 +3861,40 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <v>3</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62">
         <v>3</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q62">
         <v>3</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3902,13 +3902,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -3917,40 +3917,40 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>3</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M63">
         <v>3</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -3985,13 +3985,13 @@
         <v>3</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>3</v>
@@ -4014,31 +4014,31 @@
         <v>63</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
       <c r="J65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -4047,16 +4047,16 @@
         <v>3</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -4070,25 +4070,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -4097,22 +4097,22 @@
         <v>3</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -4126,10 +4126,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -4165,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -4197,16 +4197,16 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -4241,28 +4241,28 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>3</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -4274,16 +4274,16 @@
         <v>3</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R69">
         <v>3</v>
@@ -4294,37 +4294,37 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>3</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -4333,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -4353,28 +4353,28 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -4383,22 +4383,22 @@
         <v>3</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O71">
         <v>3</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4406,55 +4406,55 @@
         <v>70</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="R72">
         <v>5</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
-      <c r="N72">
-        <v>2</v>
-      </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72">
-        <v>5</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4462,55 +4462,55 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
         <v>5</v>
       </c>
-      <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
       <c r="L73">
         <v>3</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P73">
         <v>3</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4518,34 +4518,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>3</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -4560,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R74">
         <v>3</v>
@@ -4574,55 +4574,55 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>3</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4630,55 +4630,55 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q76">
         <v>3</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4686,55 +4686,55 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N77">
         <v>3</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4742,22 +4742,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -4766,31 +4766,31 @@
         <v>3</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -4798,10 +4798,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -4810,37 +4810,37 @@
         <v>3</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -4857,52 +4857,52 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80">
         <v>3</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -4910,22 +4910,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -4934,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -4946,19 +4946,19 @@
         <v>3</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q81">
         <v>3</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -4972,16 +4972,16 @@
         <v>3</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -4993,19 +4993,19 @@
         <v>3</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82">
         <v>3</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82">
         <v>3</v>
@@ -5022,55 +5022,55 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5078,55 +5078,55 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>3</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84">
         <v>3</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5134,22 +5134,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -5158,31 +5158,31 @@
         <v>3</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q85">
         <v>3</v>
       </c>
       <c r="R85">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5190,22 +5190,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -5214,22 +5214,22 @@
         <v>3</v>
       </c>
       <c r="J86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86">
         <v>3</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P86">
         <v>3</v>
@@ -5238,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5246,52 +5246,52 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>3</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R87">
         <v>3</v>
@@ -5302,22 +5302,22 @@
         <v>86</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>5</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
       <c r="D88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -5326,31 +5326,31 @@
         <v>3</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>3</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5358,55 +5358,55 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L89">
         <v>3</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N89">
         <v>3</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5414,49 +5414,49 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>3</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -5470,55 +5470,55 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L91">
         <v>3</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N91">
         <v>3</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5526,31 +5526,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -5565,13 +5565,13 @@
         <v>3</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R92">
         <v>3</v>
@@ -5582,43 +5582,43 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>3</v>
       </c>
       <c r="J93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>3</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O93">
         <v>3</v>
@@ -5627,10 +5627,10 @@
         <v>3</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5638,52 +5638,52 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K94">
         <v>3</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R94">
         <v>3</v>
@@ -5694,22 +5694,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -5718,31 +5718,31 @@
         <v>3</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P95">
         <v>3</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5750,55 +5750,55 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K96">
         <v>3</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q96">
         <v>3</v>
       </c>
       <c r="R96">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -5806,46 +5806,46 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97">
         <v>3</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97">
         <v>3</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P97">
         <v>3</v>
@@ -5854,7 +5854,7 @@
         <v>3</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -5877,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -5898,19 +5898,19 @@
         <v>3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -5918,55 +5918,55 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
         <v>5</v>
       </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>4</v>
-      </c>
-      <c r="H99">
-        <v>4</v>
-      </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>4</v>
-      </c>
-      <c r="K99">
-        <v>4</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
       <c r="P99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -5974,49 +5974,49 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J100">
         <v>3</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -6030,10 +6030,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -6042,16 +6042,16 @@
         <v>3</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -6060,13 +6060,13 @@
         <v>3</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -6089,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -6098,43 +6098,43 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O102">
         <v>3</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6142,22 +6142,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <v>3</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -6166,31 +6166,31 @@
         <v>3</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K103">
         <v>3</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q103">
         <v>3</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6198,22 +6198,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -6222,25 +6222,25 @@
         <v>3</v>
       </c>
       <c r="J104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K104">
         <v>3</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -6254,31 +6254,31 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -6290,16 +6290,16 @@
         <v>3</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O105">
         <v>3</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R105">
         <v>3</v>
@@ -6310,10 +6310,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -6322,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -6331,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J106">
         <v>3</v>
@@ -6343,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N106">
         <v>3</v>
@@ -6366,34 +6366,34 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
         <v>5</v>
       </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
-      <c r="G107">
-        <v>4</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
       <c r="I107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L107">
         <v>3</v>
@@ -6411,10 +6411,10 @@
         <v>3</v>
       </c>
       <c r="Q107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6422,28 +6422,28 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>3</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -6455,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N108">
         <v>3</v>
@@ -6470,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6478,55 +6478,55 @@
         <v>107</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>5</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
       <c r="D109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -6534,52 +6534,52 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110">
         <v>3</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R110">
         <v>3</v>
@@ -6593,40 +6593,40 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K111">
         <v>3</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M111">
         <v>3</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O111">
         <v>3</v>
@@ -6638,7 +6638,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6649,46 +6649,46 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <v>3</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K112">
         <v>3</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N112">
         <v>3</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -6702,13 +6702,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -6717,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -6726,25 +6726,25 @@
         <v>3</v>
       </c>
       <c r="J113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K113">
         <v>3</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M113">
         <v>3</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113">
         <v>3</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -6758,55 +6758,55 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q114">
         <v>3</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -6814,49 +6814,49 @@
         <v>113</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
         <v>5</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
-        <v>4</v>
-      </c>
-      <c r="E115">
-        <v>5</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
       <c r="G115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -6870,55 +6870,55 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R116">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -6926,55 +6926,55 @@
         <v>115</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
         <v>5</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>5</v>
-      </c>
-      <c r="F117">
-        <v>5</v>
-      </c>
-      <c r="G117">
-        <v>5</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -6982,55 +6982,55 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O118">
         <v>3</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q118">
         <v>3</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7038,55 +7038,55 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <v>3</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7094,10 +7094,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -7106,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -7121,19 +7121,19 @@
         <v>3</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L120">
         <v>3</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N120">
         <v>3</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P120">
         <v>3</v>
@@ -7142,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7156,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -7165,22 +7165,22 @@
         <v>3</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K121">
         <v>3</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M121">
         <v>3</v>
@@ -7189,13 +7189,13 @@
         <v>3</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P121">
         <v>3</v>
       </c>
       <c r="Q121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R121">
         <v>3</v>
@@ -7209,7 +7209,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -7218,19 +7218,19 @@
         <v>3</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>3</v>
       </c>
       <c r="J122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K122">
         <v>3</v>
@@ -7245,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P122">
         <v>3</v>
@@ -7262,10 +7262,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -7277,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -7286,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="J123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -7295,16 +7295,16 @@
         <v>3</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -7318,55 +7318,55 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124">
         <v>3</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K124">
         <v>3</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
